--- a/teaching/traditional_assets/database/data/indonesia/indonesia_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/indonesia/indonesia_insurance_life.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.09115000000000001</v>
+        <v>-0.132</v>
       </c>
       <c r="E2">
-        <v>0.08925</v>
+        <v>0.1278</v>
       </c>
       <c r="G2">
-        <v>0.1112511267683364</v>
+        <v>0.134840857051875</v>
       </c>
       <c r="H2">
-        <v>0.1112511267683364</v>
+        <v>0.134840857051875</v>
       </c>
       <c r="I2">
-        <v>0.1292205522544565</v>
+        <v>0.127006535551276</v>
       </c>
       <c r="J2">
-        <v>0.1210579978984904</v>
+        <v>0.1223171996968963</v>
       </c>
       <c r="K2">
-        <v>268.093</v>
+        <v>226.157</v>
       </c>
       <c r="L2">
-        <v>0.2465948600967641</v>
+        <v>0.1714687552125191</v>
       </c>
       <c r="M2">
-        <v>65.59999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="N2">
-        <v>0.0327557796974085</v>
+        <v>0.003223627655655164</v>
       </c>
       <c r="O2">
-        <v>0.2446912079017355</v>
+        <v>0.04642792396432567</v>
       </c>
       <c r="P2">
-        <v>65.59999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Q2">
-        <v>0.0327557796974085</v>
+        <v>0.003223627655655164</v>
       </c>
       <c r="R2">
-        <v>0.2446912079017355</v>
+        <v>0.04642792396432567</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>675.35</v>
+        <v>930.974</v>
       </c>
       <c r="V2">
-        <v>0.3372197533330005</v>
+        <v>0.2858203364853248</v>
       </c>
       <c r="W2">
-        <v>0.07475136010560576</v>
+        <v>0.04892263224368968</v>
       </c>
       <c r="X2">
-        <v>0.08840593875667498</v>
+        <v>0.07261801482476032</v>
       </c>
       <c r="Y2">
-        <v>-0.01365457865106921</v>
+        <v>-0.02369538258107064</v>
       </c>
       <c r="Z2">
-        <v>0.4769337404365832</v>
+        <v>0.4694104164738877</v>
       </c>
       <c r="AA2">
-        <v>0.05571950149470616</v>
+        <v>0.03392243662499179</v>
       </c>
       <c r="AB2">
-        <v>0.08840593875667498</v>
+        <v>0.07261801482476032</v>
       </c>
       <c r="AC2">
-        <v>-0.03268643726196882</v>
+        <v>-0.03870093540354935</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>132.757</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>132.757</v>
       </c>
       <c r="AG2">
-        <v>-675.35</v>
+        <v>-798.2170000000001</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.0391618536754301</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.02719501350665664</v>
       </c>
       <c r="AJ2">
-        <v>-0.5087957207970769</v>
+        <v>-0.3246126549065204</v>
       </c>
       <c r="AK2">
-        <v>-0.1891620124250046</v>
+        <v>-0.2020448058100187</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>73.303</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>73.303</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.7741655198152597</v>
+      </c>
+      <c r="AO2">
+        <v>2.285227071197632</v>
       </c>
       <c r="AP2">
-        <v>-4.692341897919764</v>
+        <v>-4.654760794009937</v>
+      </c>
+      <c r="AQ2">
+        <v>2.285227071197632</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PT Paninvest Tbk (IDX:PNIN)</t>
+          <t>PT Bhakti Multi Artha Tbk (IDX:BHAT)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,29 +724,23 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.08650000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.09880000000000001</v>
-      </c>
       <c r="G3">
-        <v>0.1201440699768459</v>
+        <v>0.03832752613240418</v>
       </c>
       <c r="H3">
-        <v>0.1201440699768459</v>
+        <v>0.03832752613240418</v>
       </c>
       <c r="I3">
-        <v>0.1355801389246205</v>
+        <v>0.04912891986062717</v>
       </c>
       <c r="J3">
-        <v>0.1353766025641026</v>
+        <v>0.04912891986062717</v>
       </c>
       <c r="K3">
-        <v>104.6</v>
+        <v>0.281</v>
       </c>
       <c r="L3">
-        <v>0.2691021353228711</v>
+        <v>0.04895470383275262</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -764,31 +764,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>315.7</v>
+        <v>0.734</v>
       </c>
       <c r="V3">
-        <v>0.9844091050826318</v>
-      </c>
-      <c r="W3">
-        <v>0.1137327389366097</v>
+        <v>0.003288530465949821</v>
       </c>
       <c r="X3">
-        <v>0.08840593875667498</v>
-      </c>
-      <c r="Y3">
-        <v>0.02532680017993477</v>
-      </c>
-      <c r="Z3">
-        <v>0.6038527264253534</v>
-      </c>
-      <c r="AA3">
-        <v>0.08174753055253484</v>
+        <v>0.07261801482476032</v>
       </c>
       <c r="AB3">
-        <v>0.08840593875667498</v>
-      </c>
-      <c r="AC3">
-        <v>-0.00665840820414014</v>
+        <v>0.07261801482476032</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -800,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-315.7</v>
+        <v>-0.734</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -809,22 +794,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-63.14</v>
+        <v>-0.003299380579504284</v>
       </c>
       <c r="AK3">
-        <v>-0.1973125</v>
+        <v>-0.02135831926904498</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <v>93.99999999999999</v>
+      </c>
       <c r="AP3">
-        <v>-5.934210526315789</v>
+        <v>-2.430463576158941</v>
+      </c>
+      <c r="AQ3">
+        <v>93.99999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PT Asuransi Jiwa Sinarmas MSIG (IDX:LIFE)</t>
+          <t>PT Capital Financial Indonesia Tbk (IDX:CASA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -844,109 +835,112 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.09011537262238853</v>
+        <v>0.06495922163399628</v>
       </c>
       <c r="H4">
-        <v>0.09011537262238853</v>
+        <v>0.06495922163399628</v>
       </c>
       <c r="I4">
-        <v>0.1163080760835672</v>
+        <v>0.1070253255115181</v>
       </c>
       <c r="J4">
-        <v>0.09698910751375434</v>
+        <v>0.1070253255115181</v>
       </c>
       <c r="K4">
-        <v>24.6</v>
+        <v>3.44</v>
       </c>
       <c r="L4">
-        <v>0.07670720299345184</v>
+        <v>0.004922020317642009</v>
       </c>
       <c r="M4">
-        <v>65.59999999999999</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.07112653149734359</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>2.666666666666666</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>65.59999999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.07112653149734359</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>2.666666666666666</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>51.9</v>
+        <v>141.8</v>
       </c>
       <c r="V4">
-        <v>0.05627236257183129</v>
+        <v>0.09614863032275564</v>
       </c>
       <c r="W4">
-        <v>0.05208553885242431</v>
+        <v>0.00786825251601098</v>
       </c>
       <c r="X4">
-        <v>0.08840593875667498</v>
+        <v>0.07743877919592808</v>
       </c>
       <c r="Y4">
-        <v>-0.03632039990425067</v>
+        <v>-0.0695705266799171</v>
       </c>
       <c r="Z4">
-        <v>0.7435659633665661</v>
+        <v>4.615333817605494</v>
       </c>
       <c r="AA4">
-        <v>0.07211779916452819</v>
+        <v>0.4939576041735455</v>
       </c>
       <c r="AB4">
-        <v>0.08840593875667498</v>
+        <v>0.07405098413322345</v>
       </c>
       <c r="AC4">
-        <v>-0.01628813959214678</v>
+        <v>0.4199066200403221</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>132.1</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>132.1</v>
       </c>
       <c r="AG4">
-        <v>-51.9</v>
+        <v>-9.700000000000017</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.08220797809446762</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.1993962264150943</v>
       </c>
       <c r="AJ4">
-        <v>-0.05962775735294118</v>
+        <v>-0.006620708484062533</v>
       </c>
       <c r="AK4">
-        <v>-0.1060049019607843</v>
+        <v>-0.01862876896485504</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>73.3</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>73.3</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1.763684913217623</v>
+      </c>
+      <c r="AO4">
+        <v>1.020463847203274</v>
       </c>
       <c r="AP4">
-        <v>-1.317258883248731</v>
+        <v>-0.1295060080106811</v>
+      </c>
+      <c r="AQ4">
+        <v>1.020463847203274</v>
       </c>
     </row>
     <row r="5">
@@ -957,7 +951,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PT Panin Financial Tbk (IDX:PNLF)</t>
+          <t>PT Paninvest Tbk (IDX:PNIN)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -966,28 +960,28 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0958</v>
+        <v>-0.156</v>
       </c>
       <c r="E5">
-        <v>0.07969999999999999</v>
+        <v>0.0946</v>
       </c>
       <c r="G5">
-        <v>0.1204787234042553</v>
+        <v>0.2914653784219001</v>
       </c>
       <c r="H5">
-        <v>0.1204787234042553</v>
+        <v>0.2914653784219001</v>
       </c>
       <c r="I5">
-        <v>0.1340425531914894</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="J5">
-        <v>0.1254618303955146</v>
+        <v>0.1601440943430993</v>
       </c>
       <c r="K5">
-        <v>138.8</v>
+        <v>72.5</v>
       </c>
       <c r="L5">
-        <v>0.3691489361702128</v>
+        <v>0.3891572732152442</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1011,31 +1005,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>303</v>
+        <v>374.7</v>
       </c>
       <c r="V5">
-        <v>0.4351572598018096</v>
+        <v>1.478689818468824</v>
       </c>
       <c r="W5">
-        <v>0.09741718135878721</v>
+        <v>0.06349623401646523</v>
       </c>
       <c r="X5">
-        <v>0.08840593875667498</v>
+        <v>0.07261801482476032</v>
       </c>
       <c r="Y5">
-        <v>0.009011242602112238</v>
+        <v>-0.009121780808295094</v>
       </c>
       <c r="Z5">
-        <v>0.3134116862548971</v>
+        <v>0.2255174918290764</v>
       </c>
       <c r="AA5">
-        <v>0.03932120382488412</v>
+        <v>0.03611529448749474</v>
       </c>
       <c r="AB5">
-        <v>0.08840593875667498</v>
+        <v>0.07261801482476032</v>
       </c>
       <c r="AC5">
-        <v>-0.04908473493179086</v>
+        <v>-0.03650272033726559</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1047,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-303</v>
+        <v>-374.7</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1056,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.7704042715484364</v>
+        <v>3.089035449299258</v>
       </c>
       <c r="AK5">
-        <v>-0.2051177904142973</v>
+        <v>-0.2476209357652656</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1071,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>-5.91796875</v>
+        <v>-12.36633663366337</v>
       </c>
     </row>
     <row r="6">
@@ -1082,115 +1076,362 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>PT Asuransi Jiwa Sinarmas MSIG Tbk (IDX:LIFE)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Insurance (Life)</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>0.1195652173913044</v>
+      </c>
+      <c r="H6">
+        <v>0.1195652173913044</v>
+      </c>
+      <c r="I6">
+        <v>0.08260869565217391</v>
+      </c>
+      <c r="J6">
+        <v>0.06754261635701972</v>
+      </c>
+      <c r="K6">
+        <v>18.6</v>
+      </c>
+      <c r="L6">
+        <v>0.0808695652173913</v>
+      </c>
+      <c r="M6">
+        <v>10.5</v>
+      </c>
+      <c r="N6">
+        <v>0.01449875724937862</v>
+      </c>
+      <c r="O6">
+        <v>0.564516129032258</v>
+      </c>
+      <c r="P6">
+        <v>10.5</v>
+      </c>
+      <c r="Q6">
+        <v>0.01449875724937862</v>
+      </c>
+      <c r="R6">
+        <v>0.564516129032258</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>64.2</v>
+      </c>
+      <c r="V6">
+        <v>0.08864954432477216</v>
+      </c>
+      <c r="W6">
+        <v>0.03434903047091413</v>
+      </c>
+      <c r="X6">
+        <v>0.07266684104041744</v>
+      </c>
+      <c r="Y6">
+        <v>-0.03831781056950331</v>
+      </c>
+      <c r="Z6">
+        <v>0.4697712418300654</v>
+      </c>
+      <c r="AA6">
+        <v>0.03172957876248884</v>
+      </c>
+      <c r="AB6">
+        <v>0.07262872923232194</v>
+      </c>
+      <c r="AC6">
+        <v>-0.04089915046983311</v>
+      </c>
+      <c r="AD6">
+        <v>0.657</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0.657</v>
+      </c>
+      <c r="AG6">
+        <v>-63.54300000000001</v>
+      </c>
+      <c r="AH6">
+        <v>0.0009063856733121153</v>
+      </c>
+      <c r="AI6">
+        <v>0.001262594718625866</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.09618152838765048</v>
+      </c>
+      <c r="AK6">
+        <v>-0.1393007232159103</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0.03173913043478261</v>
+      </c>
+      <c r="AP6">
+        <v>-3.069710144927537</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PT Panin Financial Tbk (IDX:PNLF)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Insurance (Life)</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>-0.108</v>
+      </c>
+      <c r="E7">
+        <v>0.161</v>
+      </c>
+      <c r="G7">
+        <v>0.2574206755373593</v>
+      </c>
+      <c r="H7">
+        <v>0.2574206755373593</v>
+      </c>
+      <c r="I7">
+        <v>0.2221084953940634</v>
+      </c>
+      <c r="J7">
+        <v>0.2155174709372477</v>
+      </c>
+      <c r="K7">
+        <v>131.2</v>
+      </c>
+      <c r="L7">
+        <v>0.6714431934493347</v>
+      </c>
+      <c r="M7">
+        <v>-0</v>
+      </c>
+      <c r="N7">
+        <v>-0</v>
+      </c>
+      <c r="O7">
+        <v>-0</v>
+      </c>
+      <c r="P7">
+        <v>-0</v>
+      </c>
+      <c r="Q7">
+        <v>-0</v>
+      </c>
+      <c r="R7">
+        <v>-0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>347.3</v>
+      </c>
+      <c r="V7">
+        <v>0.6123060648801129</v>
+      </c>
+      <c r="W7">
+        <v>0.07997561718988112</v>
+      </c>
+      <c r="X7">
+        <v>0.07261801482476032</v>
+      </c>
+      <c r="Y7">
+        <v>0.007357602365120799</v>
+      </c>
+      <c r="Z7">
+        <v>0.1460934579439252</v>
+      </c>
+      <c r="AA7">
+        <v>0.03148569257655193</v>
+      </c>
+      <c r="AB7">
+        <v>0.07261801482476032</v>
+      </c>
+      <c r="AC7">
+        <v>-0.04113232224820839</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>-347.3</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>-1.579354251932696</v>
+      </c>
+      <c r="AK7">
+        <v>-0.2444225490886058</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>-7.700665188470066</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>PT Asuransi Jiwa Syariah Jasa Mitra Abadi Tbk (IDX:JMAS)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Insurance (Life)</t>
         </is>
       </c>
-      <c r="G6">
-        <v>0.02808988764044944</v>
-      </c>
-      <c r="H6">
-        <v>0.02808988764044944</v>
-      </c>
-      <c r="I6">
-        <v>0.04831460674157303</v>
-      </c>
-      <c r="J6">
-        <v>0.04729745712596096</v>
-      </c>
-      <c r="K6">
-        <v>0.093</v>
-      </c>
-      <c r="L6">
-        <v>0.05224719101123595</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>-0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>-0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>4.75</v>
-      </c>
-      <c r="V6">
-        <v>0.0749211356466877</v>
-      </c>
-      <c r="W6">
-        <v>0.01134146341463415</v>
-      </c>
-      <c r="X6">
-        <v>0.08840593875667498</v>
-      </c>
-      <c r="Y6">
-        <v>-0.07706447534204083</v>
-      </c>
-      <c r="Z6">
-        <v>0.3692946058091287</v>
-      </c>
-      <c r="AA6">
-        <v>0.01746669578510592</v>
-      </c>
-      <c r="AB6">
-        <v>0.08840593875667498</v>
-      </c>
-      <c r="AC6">
-        <v>-0.07093924297156906</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>-4.75</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>-0.08098891730605286</v>
-      </c>
-      <c r="AK6">
-        <v>-1.388888888888889</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>-37.6984126984127</v>
+      <c r="G8">
+        <v>0.04884615384615384</v>
+      </c>
+      <c r="H8">
+        <v>0.04884615384615384</v>
+      </c>
+      <c r="I8">
+        <v>0.05076923076923077</v>
+      </c>
+      <c r="J8">
+        <v>0.05039865244244806</v>
+      </c>
+      <c r="K8">
+        <v>0.136</v>
+      </c>
+      <c r="L8">
+        <v>0.05230769230769231</v>
+      </c>
+      <c r="M8">
+        <v>-0</v>
+      </c>
+      <c r="N8">
+        <v>-0</v>
+      </c>
+      <c r="O8">
+        <v>-0</v>
+      </c>
+      <c r="P8">
+        <v>-0</v>
+      </c>
+      <c r="Q8">
+        <v>-0</v>
+      </c>
+      <c r="R8">
+        <v>-0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>2.24</v>
+      </c>
+      <c r="V8">
+        <v>0.1555555555555556</v>
+      </c>
+      <c r="W8">
+        <v>0.0171500630517024</v>
+      </c>
+      <c r="X8">
+        <v>0.07261801482476032</v>
+      </c>
+      <c r="Y8">
+        <v>-0.05546795177305792</v>
+      </c>
+      <c r="Z8">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="AA8">
+        <v>0.02544397987385727</v>
+      </c>
+      <c r="AB8">
+        <v>0.07261801482476032</v>
+      </c>
+      <c r="AC8">
+        <v>-0.04717403495090305</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>-2.24</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>-0.1842105263157895</v>
+      </c>
+      <c r="AK8">
+        <v>-0.4171322160148976</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>-12.30769230769231</v>
       </c>
     </row>
   </sheetData>
